--- a/输出/沪深300回测结果.xlsx
+++ b/输出/沪深300回测结果.xlsx
@@ -483,7 +483,7 @@
         <v>0.08696563140206859</v>
       </c>
       <c r="C3">
-        <v>0.08696563140206859</v>
+        <v>0.2243411809429874</v>
       </c>
       <c r="D3">
         <v>0.2503418440620963</v>
@@ -515,7 +515,7 @@
         <v>-0.2501450486388443</v>
       </c>
       <c r="C4">
-        <v>-0.2501450486388443</v>
+        <v>-0.2554344572600408</v>
       </c>
       <c r="D4">
         <v>0.205815292974539</v>
@@ -547,7 +547,7 @@
         <v>0.07554539246004044</v>
       </c>
       <c r="C5">
-        <v>0.07554539246004044</v>
+        <v>0.07780417168596898</v>
       </c>
       <c r="D5">
         <v>0.2035582954317499</v>
@@ -579,7 +579,7 @@
         <v>-0.07646835928705753</v>
       </c>
       <c r="C6">
-        <v>-0.07646835928705753</v>
+        <v>-0.08016516622822656</v>
       </c>
       <c r="D6">
         <v>0.2213201389946242</v>
@@ -611,7 +611,7 @@
         <v>0.5165946646088928</v>
       </c>
       <c r="C7">
-        <v>0.5165946646088928</v>
+        <v>0.5295396463508006</v>
       </c>
       <c r="D7">
         <v>0.1917817031267276</v>
@@ -643,7 +643,7 @@
         <v>0.05583366466640549</v>
       </c>
       <c r="C8">
-        <v>0.05583366466640549</v>
+        <v>0.05724520092277374</v>
       </c>
       <c r="D8">
         <v>0.3926868418680053</v>
@@ -675,7 +675,7 @@
         <v>-0.1128178423361407</v>
       </c>
       <c r="C9">
-        <v>-0.1128178423361407</v>
+        <v>-0.115425480431059</v>
       </c>
       <c r="D9">
         <v>0.2213550152495911</v>
@@ -707,7 +707,7 @@
         <v>0.2177512101819385</v>
       </c>
       <c r="C10">
-        <v>0.2177512101819385</v>
+        <v>0.223664805118728</v>
       </c>
       <c r="D10">
         <v>0.1010623197075027</v>
@@ -739,7 +739,7 @@
         <v>-0.2530979966557466</v>
       </c>
       <c r="C11">
-        <v>-0.2530979966557466</v>
+        <v>-0.2593504177624505</v>
       </c>
       <c r="D11">
         <v>0.2133914186063923</v>
@@ -771,7 +771,7 @@
         <v>0.3606952656393281</v>
       </c>
       <c r="C12">
-        <v>0.3606952656393281</v>
+        <v>0.3710398422963743</v>
       </c>
       <c r="D12">
         <v>0.1977489991152501</v>
@@ -803,7 +803,7 @@
         <v>0.2721064469817411</v>
       </c>
       <c r="C13">
-        <v>0.2721064469817411</v>
+        <v>0.2809566047219418</v>
       </c>
       <c r="D13">
         <v>0.2268038258801154</v>
@@ -835,7 +835,7 @@
         <v>0.05256133871690283</v>
       </c>
       <c r="C14">
-        <v>0.05256133871690283</v>
+        <v>0.7450975865802332</v>
       </c>
       <c r="D14">
         <v>0.2234174754573125</v>
